--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
@@ -156,12 +156,6 @@
     <t>Daily</t>
   </si>
   <si>
-    <t>07/29/2020</t>
-  </si>
-  <si>
-    <t>08/25/2020</t>
-  </si>
-  <si>
     <t>No_Of_Acconts_query</t>
   </si>
   <si>
@@ -172,6 +166,12 @@
   </si>
   <si>
     <t>SELECT COUNT(*) FROM DC_FUND_TRANSFER_BENEFICIARY CA WHERE CA.CUSTOMER_INFO_ID = (SELECT DT.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DT WHERE DT.CUSTOMER_NAME = '{username}') AND CA.IS_DELETED = 0 AND CA.FUND_TRANSFER_TYPE = 'INTER_BRANCH'</t>
+  </si>
+  <si>
+    <t>08/29/2020</t>
+  </si>
+  <si>
+    <t>09/27/2020</t>
   </si>
 </sst>
 </file>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,10 +551,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
@@ -664,10 +664,10 @@
         <v>44</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>35</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
@@ -129,9 +129,6 @@
     <t>12345678</t>
   </si>
   <si>
-    <t>Your transaction has been processed successfully.</t>
-  </si>
-  <si>
     <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>09/27/2020</t>
+  </si>
+  <si>
+    <t>Money sent successfully.</t>
   </si>
 </sst>
 </file>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,10 +551,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -581,13 +581,13 @@
         <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>24</v>
@@ -631,10 +631,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
@@ -661,13 +661,13 @@
         <v>34</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>35</v>
@@ -676,25 +676,25 @@
         <v>6</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
         <v>10</v>
       </c>
       <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
         <v>38</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>39</v>
-      </c>
-      <c r="X2" t="s">
-        <v>40</v>
       </c>
       <c r="Y2" t="s">
         <v>11</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
@@ -526,7 +526,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Case</t>
   </si>
@@ -60,15 +60,6 @@
     <t>DIGITAL_CHANNEL_SEC</t>
   </si>
   <si>
-    <t>AliAbbas1</t>
-  </si>
-  <si>
-    <t>tran_type_query</t>
-  </si>
-  <si>
-    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
     <t>Success_Message</t>
   </si>
   <si>
@@ -96,30 +87,9 @@
     <t>OTP_Value</t>
   </si>
   <si>
-    <t>tran_amount_query</t>
-  </si>
-  <si>
-    <t>to_account_query</t>
-  </si>
-  <si>
-    <t>to_bank_query</t>
-  </si>
-  <si>
-    <t>bene_name_query</t>
-  </si>
-  <si>
-    <t>When valid Account Details are provided with adding new Bene</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '06047900194203' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = 'ABBY');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY');COMMIT;END;</t>
-  </si>
-  <si>
     <t>HBL / Konnect</t>
   </si>
   <si>
-    <t>12757900758503</t>
-  </si>
-  <si>
     <t>03121223345</t>
   </si>
   <si>
@@ -129,18 +99,6 @@
     <t>12345678</t>
   </si>
   <si>
-    <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>SELECT DT.TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>SELECT DB.BANK_NAME FROM DC_FUND_TRANSFER_BANK DB WHERE DB.FUND_TRANSFER_BANK_ID = (SELECT DT.BANK_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>SELECT DT.BENEFICIARY_NAME FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
     <t>Frequency_Value</t>
   </si>
   <si>
@@ -165,13 +123,31 @@
     <t>SELECT COUNT(*) FROM DC_FUND_TRANSFER_BENEFICIARY CA WHERE CA.CUSTOMER_INFO_ID = (SELECT DT.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DT WHERE DT.CUSTOMER_NAME = '{username}') AND CA.IS_DELETED = 0 AND CA.FUND_TRANSFER_TYPE = 'INTER_BRANCH'</t>
   </si>
   <si>
-    <t>08/29/2020</t>
-  </si>
-  <si>
-    <t>09/27/2020</t>
-  </si>
-  <si>
-    <t>Money sent successfully.</t>
+    <t>When valid Account Details are provided with adding new Bene with schedule</t>
+  </si>
+  <si>
+    <t>AliSchedule</t>
+  </si>
+  <si>
+    <t>10/29/2020</t>
+  </si>
+  <si>
+    <t>11/27/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction is successful. </t>
+  </si>
+  <si>
+    <t>frequency_query</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT DT.FREQUENCY FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '00580052365603' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = '{username}');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{username}');COMMIT;END;</t>
+  </si>
+  <si>
+    <t>00580052365603</t>
   </si>
 </sst>
 </file>
@@ -523,15 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="59.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
@@ -539,11 +515,9 @@
     <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="44.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,19 +525,19 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -572,134 +546,110 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2">
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="109">
   <si>
     <t>Case</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Success_Message</t>
   </si>
   <si>
-    <t>02197900643103</t>
-  </si>
-  <si>
     <t>Courier Services</t>
   </si>
   <si>
@@ -90,15 +87,9 @@
     <t>HBL / Konnect</t>
   </si>
   <si>
-    <t>03121223345</t>
-  </si>
-  <si>
     <t>aliabb111@gmail.com</t>
   </si>
   <si>
-    <t>12345678</t>
-  </si>
-  <si>
     <t>Frequency_Value</t>
   </si>
   <si>
@@ -123,18 +114,6 @@
     <t>SELECT COUNT(*) FROM DC_FUND_TRANSFER_BENEFICIARY CA WHERE CA.CUSTOMER_INFO_ID = (SELECT DT.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DT WHERE DT.CUSTOMER_NAME = '{username}') AND CA.IS_DELETED = 0 AND CA.FUND_TRANSFER_TYPE = 'INTER_BRANCH'</t>
   </si>
   <si>
-    <t>When valid Account Details are provided with adding new Bene with schedule</t>
-  </si>
-  <si>
-    <t>AliSchedule</t>
-  </si>
-  <si>
-    <t>10/29/2020</t>
-  </si>
-  <si>
-    <t>11/27/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transaction is successful. </t>
   </si>
   <si>
@@ -147,14 +126,233 @@
     <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '00580052365603' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = '{username}');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{username}');COMMIT;END;</t>
   </si>
   <si>
-    <t>00580052365603</t>
+    <t>AliSchedule1</t>
+  </si>
+  <si>
+    <t>AliSchedule2</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>AliSchedule3</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AliSchedule4</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Ali!#$$Schedule5</t>
+  </si>
+  <si>
+    <t>AliSchedule6</t>
+  </si>
+  <si>
+    <t>AliSchedule7</t>
+  </si>
+  <si>
+    <t>aliabb111#gmail.com</t>
+  </si>
+  <si>
+    <t>AliSchedule8</t>
+  </si>
+  <si>
+    <t>13/32/2020</t>
+  </si>
+  <si>
+    <t>AliSchedule9</t>
+  </si>
+  <si>
+    <t>14/33/2020</t>
+  </si>
+  <si>
+    <t>AliSchedule10</t>
+  </si>
+  <si>
+    <t>AliSchedule11</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>AliSchedule12</t>
+  </si>
+  <si>
+    <t>pakistan1</t>
+  </si>
+  <si>
+    <t>AliSchedule16</t>
+  </si>
+  <si>
+    <t>AliSchedule13</t>
+  </si>
+  <si>
+    <t>PK50HABB0013227900983503</t>
+  </si>
+  <si>
+    <t>AliSchedule14</t>
+  </si>
+  <si>
+    <t>Model Bank</t>
+  </si>
+  <si>
+    <t>AliSchedule15</t>
+  </si>
+  <si>
+    <t>2308790094190</t>
+  </si>
+  <si>
+    <t>07867915677101</t>
+  </si>
+  <si>
+    <t>14900011079803</t>
+  </si>
+  <si>
+    <t>00476001511601</t>
+  </si>
+  <si>
+    <t>09470201056703</t>
+  </si>
+  <si>
+    <t>24460094904501</t>
+  </si>
+  <si>
+    <t>24460099464901</t>
+  </si>
+  <si>
+    <t>18347900150103</t>
+  </si>
+  <si>
+    <t>00147900721001</t>
+  </si>
+  <si>
+    <t>00476001558901</t>
+  </si>
+  <si>
+    <t>00476000135901</t>
+  </si>
+  <si>
+    <t>22647000000401</t>
+  </si>
+  <si>
+    <t>22647901476280</t>
+  </si>
+  <si>
+    <t>22648999100880</t>
+  </si>
+  <si>
+    <t>00020000011005730</t>
+  </si>
+  <si>
+    <t>19107902017803</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid Bene a/c add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid Bank add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with negative amount add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid purpose add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid mobile no add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid email add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid format from_date add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid format to_date add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with valid Details to date less than from date add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with valid Details but incorrect freqency add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with valid Details but incorrect transaction Password add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with valid Details but daily greater than 30 add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with all valid details add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with all valid details(iban) add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with all valid details for Other Bank add_new_schedule</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with Special Character in Bene Name add_new_schedule</t>
+  </si>
+  <si>
+    <t>03291234567</t>
+  </si>
+  <si>
+    <t>03291234568</t>
+  </si>
+  <si>
+    <t>03291234569</t>
+  </si>
+  <si>
+    <t>03291234570</t>
+  </si>
+  <si>
+    <t>03291234571</t>
+  </si>
+  <si>
+    <t>03291234573</t>
+  </si>
+  <si>
+    <t>00000000000</t>
+  </si>
+  <si>
+    <t>03291234574</t>
+  </si>
+  <si>
+    <t>03291234575</t>
+  </si>
+  <si>
+    <t>03291234576</t>
+  </si>
+  <si>
+    <t>03291234577</t>
+  </si>
+  <si>
+    <t>03291234578</t>
+  </si>
+  <si>
+    <t>03291234582</t>
+  </si>
+  <si>
+    <t>03291234579</t>
+  </si>
+  <si>
+    <t>03291234580</t>
+  </si>
+  <si>
+    <t>03291234581</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,16 +375,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,14 +421,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -499,17 +713,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="59.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
@@ -517,7 +731,7 @@
     <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,19 +739,19 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -546,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
@@ -576,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="T1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U1" t="s">
         <v>8</v>
@@ -585,79 +799,1146 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O2" s="7">
+        <v>44134</v>
+      </c>
+      <c r="P2" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O3" s="7">
+        <v>44162</v>
+      </c>
+      <c r="P3" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-13</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O4" s="7">
+        <v>44140</v>
+      </c>
+      <c r="P4" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="N5" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O5" s="7">
+        <v>44162</v>
+      </c>
+      <c r="P5" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="U5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="2">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="M6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O6" s="7">
+        <v>44140</v>
+      </c>
+      <c r="P6" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="T6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2">
+        <v>16</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O7" s="7">
+        <v>44140</v>
+      </c>
+      <c r="P7" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O8" s="7">
+        <v>44140</v>
+      </c>
+      <c r="P8" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="2">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="7">
+        <v>44140</v>
+      </c>
+      <c r="P9" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="2">
+        <v>19</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O11" s="7">
+        <v>44119</v>
+      </c>
+      <c r="P11" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="2">
+        <v>21</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O12" s="7">
+        <v>44140</v>
+      </c>
+      <c r="P12" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="2">
+        <v>22</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O13" s="7">
+        <v>44140</v>
+      </c>
+      <c r="P13" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="2">
+        <v>26</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O14" s="7">
+        <v>44170</v>
+      </c>
+      <c r="P14" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="2">
         <v>23</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="I15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O15" s="7">
+        <v>44140</v>
+      </c>
+      <c r="P15" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="2">
         <v>24</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="I16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O16" s="7">
+        <v>44140</v>
+      </c>
+      <c r="P16" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="2">
         <v>25</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="I17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="7">
+        <v>44126</v>
+      </c>
+      <c r="O17" s="7">
+        <v>44140</v>
+      </c>
+      <c r="P17" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="T17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V17" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId1" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L3" r:id="rId2" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L4" r:id="rId3" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L5" r:id="rId4" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L6" r:id="rId5" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L7" r:id="rId6" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L8" r:id="rId7" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L9" r:id="rId8" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L10" r:id="rId9" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L11" r:id="rId10" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L12" r:id="rId11" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L13" r:id="rId12" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L14" r:id="rId13" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L15" r:id="rId14" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L16" r:id="rId15" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L17" r:id="rId16" display="mailto:aliabb111@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="247">
   <si>
     <t>Case</t>
   </si>
@@ -123,9 +123,6 @@
     <t xml:space="preserve"> SELECT DT.FREQUENCY FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
-    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '00580052365603' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = '{username}');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{username}');COMMIT;END;</t>
-  </si>
-  <si>
     <t>AliSchedule1</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>AliSchedule3</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>AliSchedule4</t>
   </si>
   <si>
@@ -162,15 +156,9 @@
     <t>AliSchedule8</t>
   </si>
   <si>
-    <t>13/32/2020</t>
-  </si>
-  <si>
     <t>AliSchedule9</t>
   </si>
   <si>
-    <t>14/33/2020</t>
-  </si>
-  <si>
     <t>AliSchedule10</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>AliSchedule12</t>
   </si>
   <si>
-    <t>pakistan1</t>
-  </si>
-  <si>
     <t>AliSchedule16</t>
   </si>
   <si>
@@ -249,57 +234,6 @@
     <t>00020000011005730</t>
   </si>
   <si>
-    <t>19107902017803</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with invalid Bene a/c add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with invalid Bank add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with negative amount add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with invalid purpose add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with invalid mobile no add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with invalid email add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with invalid format from_date add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with invalid format to_date add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with valid Details to date less than from date add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with valid Details but incorrect freqency add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with valid Details but incorrect transaction Password add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with valid Details but daily greater than 30 add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with all valid details add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with all valid details(iban) add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with all valid details for Other Bank add_new_schedule</t>
-  </si>
-  <si>
-    <t>When invalid Details are provided with Special Character in Bene Name add_new_schedule</t>
-  </si>
-  <si>
     <t>03291234567</t>
   </si>
   <si>
@@ -346,13 +280,493 @@
   </si>
   <si>
     <t>03291234581</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>23087900855910</t>
+  </si>
+  <si>
+    <t>23457913894303</t>
+  </si>
+  <si>
+    <t>insufficient1</t>
+  </si>
+  <si>
+    <t>22837900580401</t>
+  </si>
+  <si>
+    <t>00476001164901</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>01797900741901</t>
+  </si>
+  <si>
+    <t>Fortnightly</t>
+  </si>
+  <si>
+    <t>limitexceeds3</t>
+  </si>
+  <si>
+    <t>22647000001903</t>
+  </si>
+  <si>
+    <t>limitexceeds2</t>
+  </si>
+  <si>
+    <t>limitexceeds1</t>
+  </si>
+  <si>
+    <t>12757900758503</t>
+  </si>
+  <si>
+    <t>misysspecial1</t>
+  </si>
+  <si>
+    <t>04007902322903</t>
+  </si>
+  <si>
+    <t>branchless1</t>
+  </si>
+  <si>
+    <t>03334900125</t>
+  </si>
+  <si>
+    <t>misysblocked1</t>
+  </si>
+  <si>
+    <t>moneyclub1</t>
+  </si>
+  <si>
+    <t>12497900564101</t>
+  </si>
+  <si>
+    <t>fcy1</t>
+  </si>
+  <si>
+    <t>loan1</t>
+  </si>
+  <si>
+    <t>22667230559903</t>
+  </si>
+  <si>
+    <t>ibftiban5</t>
+  </si>
+  <si>
+    <t>PK27BAHL1083009501262002</t>
+  </si>
+  <si>
+    <t>Bank AL Habib Limited</t>
+  </si>
+  <si>
+    <t>ibftiban4</t>
+  </si>
+  <si>
+    <t>PK97BAHL1108009500890601</t>
+  </si>
+  <si>
+    <t>ibftiban3</t>
+  </si>
+  <si>
+    <t>PK48BAHL0070009500457801</t>
+  </si>
+  <si>
+    <t>ibftiban2</t>
+  </si>
+  <si>
+    <t>ibftiban1</t>
+  </si>
+  <si>
+    <t>ibft5</t>
+  </si>
+  <si>
+    <t>0300777261006679</t>
+  </si>
+  <si>
+    <t>MCB Bank Limited</t>
+  </si>
+  <si>
+    <t>ibft4</t>
+  </si>
+  <si>
+    <t>100605050300201</t>
+  </si>
+  <si>
+    <t>BankIslami Pakistan Limited</t>
+  </si>
+  <si>
+    <t>ibft3</t>
+  </si>
+  <si>
+    <t>01719020101</t>
+  </si>
+  <si>
+    <t>Standard Chartered Bank</t>
+  </si>
+  <si>
+    <t>ibft2</t>
+  </si>
+  <si>
+    <t>0605060510946074</t>
+  </si>
+  <si>
+    <t>United Bank Limited</t>
+  </si>
+  <si>
+    <t>ibft1</t>
+  </si>
+  <si>
+    <t>02800320004636</t>
+  </si>
+  <si>
+    <t>Askari Commercial Bank Limited</t>
+  </si>
+  <si>
+    <t>AliSch5</t>
+  </si>
+  <si>
+    <t>07867916249703</t>
+  </si>
+  <si>
+    <t>AliSch4</t>
+  </si>
+  <si>
+    <t>07867901527301</t>
+  </si>
+  <si>
+    <t>AliSch3</t>
+  </si>
+  <si>
+    <t>00277900350711</t>
+  </si>
+  <si>
+    <t>AliSch2</t>
+  </si>
+  <si>
+    <t>08497900068901</t>
+  </si>
+  <si>
+    <t>AliSch1</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>ibftiban10</t>
+  </si>
+  <si>
+    <t>ibftiban9</t>
+  </si>
+  <si>
+    <t>ibftiban8</t>
+  </si>
+  <si>
+    <t>ibftiban7</t>
+  </si>
+  <si>
+    <t>ibftiban6</t>
+  </si>
+  <si>
+    <t>ibft10</t>
+  </si>
+  <si>
+    <t>ibft9</t>
+  </si>
+  <si>
+    <t>ibft8</t>
+  </si>
+  <si>
+    <t>ibft7</t>
+  </si>
+  <si>
+    <t>ibft6</t>
+  </si>
+  <si>
+    <t>AliSch10</t>
+  </si>
+  <si>
+    <t>00477948322201</t>
+  </si>
+  <si>
+    <t>AliSch9</t>
+  </si>
+  <si>
+    <t>AliSch8</t>
+  </si>
+  <si>
+    <t>07867902599901</t>
+  </si>
+  <si>
+    <t>AliSch7</t>
+  </si>
+  <si>
+    <t>08527900480003</t>
+  </si>
+  <si>
+    <t>AliSch6</t>
+  </si>
+  <si>
+    <t>08497900070001</t>
+  </si>
+  <si>
+    <t>09167991835203</t>
+  </si>
+  <si>
+    <t>pakistan11</t>
+  </si>
+  <si>
+    <t>13597901717701</t>
+  </si>
+  <si>
+    <t>Testt</t>
+  </si>
+  <si>
+    <t>HBL / Konnectt</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid Bene acc add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid Bank add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with negative amount add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid purpose add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with Special Character in Bene Name add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid mobile no add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid email add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with valid Details but incorrect freqency add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with valid Details but incorrect transaction Password add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When Details are provided with all valid details add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When Details are provided with all valid details for Other Bank add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When Details are provided with all valid details iban add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with correct scheduled dates Daily add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with correct scheduled dates Weekly add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with correct scheduled dates Fortnightly add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with correct scheduled dates Monthly add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with correct scheduled dates Quarterly add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with correct scheduled dates Daily add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with correct scheduled dates Weekly add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with correct scheduled dates Fortnightly add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with correct scheduled dates Monthly add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with correct scheduled dates Quarterly add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with correct scheduled dates Daily add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with correct scheduled dates Weekly add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with correct scheduled dates Fortnightly add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with correct scheduled dates Monthly add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with correct scheduled dates Quarterly add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When Bene Account is LOAN add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When Bene Account is FCY add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When Bene Account is MONEY CLUB add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When Bene Account is BLOCKED FROM MISYS add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When Bene Account is BRANCHLESS Konnect add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When Bene Account has SPECIAL CONDITION add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When Daily Limit Exceeds on HBL Acc add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When Daily Limit Exceeds on IBFT Acc add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When Daily Limit Exceeds on OWN Acc add_new_schedule_KAINAT16</t>
+  </si>
+  <si>
+    <t>When Senders have INSUFFICIENT BALANCE add_new_schedule_KAINATISM</t>
+  </si>
+  <si>
+    <t>05547900071503</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>psdn</t>
+  </si>
+  <si>
+    <t>07867917962301</t>
+  </si>
+  <si>
+    <t>psdy</t>
+  </si>
+  <si>
+    <t>00580052365603</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid format from_date add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with invalid format to_date add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with valid Details to date less than from date add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When invalid Details are provided with valid Details but daily greater than 30 add_new_schedule_KAINAT7113</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with invalid  scheduled dates Daily add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with invalid  scheduled dates Weekly add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with invalid  scheduled dates Fortnightly add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with invalid  scheduled dates Monthly add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with invalid  scheduled dates Quarterly add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with invalid  scheduled dates Daily add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with invalid  scheduled dates Weekly add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with invalid  scheduled dates Fortnightly add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with invalid  scheduled dates Monthly add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with invalid  scheduled dates Quarterly add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with invalid  scheduled dates Daily add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with invalid  scheduled dates Weekly add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with invalid  scheduled dates Fortnightly add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with invalid  scheduled dates Monthly add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with invalid  scheduled dates Quarterly add_new_schedule_KAINAAT123</t>
+  </si>
+  <si>
+    <t>When Senders PSD Flag Y add_new_schedule_KAINATANEEL</t>
+  </si>
+  <si>
+    <t>When Senders PSD Flag N add_new_schedule_SUKAINA123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +813,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -421,7 +842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,9 +850,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -713,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,6 +1155,7 @@
     <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="44.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -798,14 +1225,15 @@
       <c r="V1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="W1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
@@ -813,25 +1241,25 @@
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>93</v>
+        <v>34</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>22</v>
@@ -839,11 +1267,11 @@
       <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O2" s="7">
-        <v>44134</v>
+      <c r="N2" s="10">
+        <v>2</v>
+      </c>
+      <c r="O2" s="10">
+        <v>28</v>
       </c>
       <c r="P2" s="3">
         <v>12345678</v>
@@ -863,19 +1291,19 @@
       <c r="U2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="3"/>
+      <c r="V2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
@@ -883,37 +1311,37 @@
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O3" s="7">
-        <v>44162</v>
+      <c r="N3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="P3" s="3">
         <v>12345678</v>
@@ -933,19 +1361,19 @@
       <c r="U3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" s="3"/>
+      <c r="V3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
@@ -953,25 +1381,25 @@
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2">
         <v>-13</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>95</v>
+        <v>37</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>22</v>
@@ -979,11 +1407,11 @@
       <c r="M4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O4" s="7">
-        <v>44140</v>
+      <c r="N4" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="P4" s="3">
         <v>12345678</v>
@@ -1003,19 +1431,19 @@
       <c r="U4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="3"/>
+      <c r="V4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1023,37 +1451,37 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2">
         <v>14</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O5" s="7">
-        <v>44162</v>
+      <c r="N5" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="P5" s="3">
         <v>12345678</v>
@@ -1073,19 +1501,19 @@
       <c r="U5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="3"/>
+      <c r="V5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1093,25 +1521,25 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2">
         <v>15</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>97</v>
+        <v>40</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>22</v>
@@ -1119,11 +1547,11 @@
       <c r="M6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O6" s="7">
-        <v>44140</v>
+      <c r="N6" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="P6" s="3">
         <v>12345678</v>
@@ -1143,19 +1571,19 @@
       <c r="U6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="3"/>
+      <c r="V6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1163,25 +1591,25 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2">
         <v>16</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>22</v>
@@ -1189,11 +1617,11 @@
       <c r="M7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O7" s="7">
-        <v>44140</v>
+      <c r="N7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="P7" s="3">
         <v>12345678</v>
@@ -1213,19 +1641,19 @@
       <c r="U7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W7" s="3"/>
+      <c r="V7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="8" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1233,37 +1661,37 @@
         <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H8" s="2">
         <v>17</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>98</v>
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O8" s="7">
-        <v>44140</v>
+      <c r="N8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="P8" s="3">
         <v>12345678</v>
@@ -1283,19 +1711,19 @@
       <c r="U8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="3"/>
+      <c r="V8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="9" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1303,25 +1731,25 @@
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2">
         <v>18</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>22</v>
@@ -1329,11 +1757,11 @@
       <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="7">
-        <v>44140</v>
+      <c r="N9" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="P9" s="3">
         <v>12345678</v>
@@ -1353,19 +1781,19 @@
       <c r="U9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W9" s="3"/>
+      <c r="V9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1373,25 +1801,25 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="H10" s="2">
         <v>19</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>101</v>
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>22</v>
@@ -1399,11 +1827,11 @@
       <c r="M10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>49</v>
+      <c r="N10" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="P10" s="3">
         <v>12345678</v>
@@ -1423,19 +1851,19 @@
       <c r="U10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="3"/>
+      <c r="V10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="11" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1443,25 +1871,25 @@
         <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2">
         <v>20</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>102</v>
+        <v>46</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>22</v>
@@ -1469,11 +1897,11 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O11" s="7">
-        <v>44119</v>
+      <c r="N11" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="P11" s="3">
         <v>12345678</v>
@@ -1493,19 +1921,19 @@
       <c r="U11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="3"/>
+      <c r="V11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1513,37 +1941,37 @@
         <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H12" s="2">
         <v>21</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>103</v>
+        <v>47</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O12" s="7">
-        <v>44140</v>
+        <v>48</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="P12" s="3">
         <v>12345678</v>
@@ -1563,19 +1991,19 @@
       <c r="U12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W12" s="3"/>
+      <c r="V12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1583,25 +2011,25 @@
         <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H13" s="2">
         <v>22</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>104</v>
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>22</v>
@@ -1609,17 +2037,17 @@
       <c r="M13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O13" s="7">
-        <v>44140</v>
+      <c r="N13" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="P13" s="3">
         <v>12345678</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>31</v>
@@ -1633,19 +2061,19 @@
       <c r="U13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W13" s="3"/>
+      <c r="V13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="14" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1653,25 +2081,25 @@
         <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2">
         <v>26</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>105</v>
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>22</v>
@@ -1679,11 +2107,11 @@
       <c r="M14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O14" s="7">
-        <v>44170</v>
+      <c r="N14" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="P14" s="3">
         <v>12345678</v>
@@ -1703,19 +2131,19 @@
       <c r="U14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W14" s="3"/>
+      <c r="V14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="15" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1723,25 +2151,25 @@
         <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H15" s="2">
         <v>23</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>106</v>
+        <v>51</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>22</v>
@@ -1749,11 +2177,11 @@
       <c r="M15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O15" s="7">
-        <v>44140</v>
+      <c r="N15" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="P15" s="3">
         <v>12345678</v>
@@ -1773,19 +2201,19 @@
       <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W15" s="3"/>
+      <c r="V15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="16" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1793,25 +2221,25 @@
         <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H16" s="2">
         <v>24</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>107</v>
+        <v>53</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>22</v>
@@ -1819,11 +2247,11 @@
       <c r="M16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O16" s="7">
-        <v>44140</v>
+      <c r="N16" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="P16" s="3">
         <v>12345678</v>
@@ -1843,19 +2271,19 @@
       <c r="U16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W16" s="3"/>
+      <c r="V16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="17" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1863,25 +2291,25 @@
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2">
         <v>25</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>108</v>
+        <v>55</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>22</v>
@@ -1889,11 +2317,11 @@
       <c r="M17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="7">
-        <v>44126</v>
-      </c>
-      <c r="O17" s="7">
-        <v>44140</v>
+      <c r="N17" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="P17" s="3">
         <v>12345678</v>
@@ -1913,11 +2341,2911 @@
       <c r="U17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W17" s="3"/>
+      <c r="V17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="2">
+        <v>23</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="P18" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="2">
+        <v>23</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="2">
+        <v>23</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="P20" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="2">
+        <v>23</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="P21" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="2">
+        <v>23</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="P22" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="2">
+        <v>23</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="P23" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="2">
+        <v>23</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="P24" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="2">
+        <v>23</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="P25" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="2">
+        <v>23</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="P26" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="2">
+        <v>23</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="P27" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="2">
+        <v>23</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="P28" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="2">
+        <v>23</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="P29" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="2">
+        <v>23</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="P30" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="2">
+        <v>23</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="2">
+        <v>23</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="P32" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="2">
+        <v>23</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P33" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="2">
+        <v>23</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="P34" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="2">
+        <v>23</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="P35" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="2">
+        <v>23</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P36" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="2">
+        <v>23</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="P37" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="2">
+        <v>23</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P38" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="2">
+        <v>23</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="P39" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="2">
+        <v>23</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="P40" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="2">
+        <v>23</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P41" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" s="2">
+        <v>23</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="P42" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" s="2">
+        <v>23</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P43" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="2">
+        <v>23</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="P44" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H45" s="2">
+        <v>23</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="P45" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="2">
+        <v>23</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P46" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" s="2">
+        <v>23</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="P47" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="2">
+        <v>23</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P48" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" s="2">
+        <v>23</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P49" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="2">
+        <v>23</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P50" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="2">
+        <v>23</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P51" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="2">
+        <v>23</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P52" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" s="2">
+        <v>23</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P53" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="2">
+        <v>600000</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P54" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="2">
+        <v>700000</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P55" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56" s="2">
+        <v>800000</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P56" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="2">
+        <v>98500</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P57" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P58" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H59" s="2">
+        <v>3</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P59" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X59" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1937,8 +5265,50 @@
     <hyperlink ref="L15" r:id="rId14" display="mailto:aliabb111@gmail.com"/>
     <hyperlink ref="L16" r:id="rId15" display="mailto:aliabb111@gmail.com"/>
     <hyperlink ref="L17" r:id="rId16" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L33" r:id="rId17" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L34" r:id="rId18" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L35" r:id="rId19" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L36" r:id="rId20" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L37" r:id="rId21" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L18" r:id="rId22" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L19" r:id="rId23" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L20" r:id="rId24" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L21" r:id="rId25" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L22" r:id="rId26" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L38" r:id="rId27" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L39" r:id="rId28" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L40" r:id="rId29" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L41" r:id="rId30" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L42" r:id="rId31" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L23" r:id="rId32" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L24" r:id="rId33" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L25" r:id="rId34" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L26" r:id="rId35" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L27" r:id="rId36" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L43" r:id="rId37" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L44" r:id="rId38" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L45" r:id="rId39" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L46" r:id="rId40" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L47" r:id="rId41" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L28" r:id="rId42" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L29" r:id="rId43" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L30" r:id="rId44" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L31" r:id="rId45" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L32" r:id="rId46" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L48" r:id="rId47" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L49" r:id="rId48" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L50" r:id="rId49" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L51" r:id="rId50" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L52" r:id="rId51" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L53" r:id="rId52" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L54" r:id="rId53" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L55" r:id="rId54" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L56" r:id="rId55" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L58" r:id="rId56" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L59" r:id="rId57" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="L57" r:id="rId58" display="mailto:aliabb111@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
 </worksheet>
 </file>
--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="248">
   <si>
     <t>Case</t>
   </si>
@@ -760,6 +760,9 @@
   </si>
   <si>
     <t>When Senders PSD Flag N add_new_schedule_SUKAINA123</t>
+  </si>
+  <si>
+    <t>Zakat</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,7 +2375,7 @@
         <v>23</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>162</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="250">
   <si>
     <t>Case</t>
   </si>
@@ -763,6 +763,12 @@
   </si>
   <si>
     <t>Zakat</t>
+  </si>
+  <si>
+    <t>conversion_query</t>
+  </si>
+  <si>
+    <t>FCY_Check</t>
   </si>
 </sst>
 </file>
@@ -1142,26 +1148,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="59.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="44.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="59.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="44.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1169,4147 +1175,4185 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="2">
-        <v>11</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="10">
+      <c r="P2" s="10">
         <v>2</v>
       </c>
-      <c r="O2" s="10">
+      <c r="Q2" s="10">
         <v>28</v>
       </c>
-      <c r="P2" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>31</v>
+      <c r="R2" s="3">
+        <v>12345678</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="2">
-        <v>12</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P3" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>31</v>
+      <c r="R3" s="3">
+        <v>12345678</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>172</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>-13</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P4" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>31</v>
+      <c r="R4" s="3">
+        <v>12345678</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="2">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O5" s="10" t="s">
+      <c r="P5" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P5" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>31</v>
+      <c r="R5" s="3">
+        <v>12345678</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>15</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q6" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P6" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>31</v>
+      <c r="R6" s="3">
+        <v>12345678</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>175</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>16</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="N7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O7" s="10" t="s">
+      <c r="P7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P7" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>31</v>
+      <c r="R7" s="3">
+        <v>12345678</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>17</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O8" s="10" t="s">
+      <c r="P8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P8" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>31</v>
+      <c r="R8" s="3">
+        <v>12345678</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>226</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>18</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P9" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>31</v>
+      <c r="R9" s="3">
+        <v>12345678</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>227</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="2">
         <v>19</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="N10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O10" s="12" t="s">
+      <c r="P10" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q10" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="P10" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>31</v>
+      <c r="R10" s="3">
+        <v>12345678</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>228</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>20</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O11" s="12" t="s">
+      <c r="P11" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q11" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="P11" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>31</v>
+      <c r="R11" s="3">
+        <v>12345678</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="2">
+      <c r="J12" s="2">
         <v>21</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O12" s="10" t="s">
+      <c r="P12" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q12" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P12" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>31</v>
+      <c r="R12" s="3">
+        <v>12345678</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>178</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="2">
-        <v>22</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2">
+        <v>22</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O13" s="10" t="s">
+      <c r="P13" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q13" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P13" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="S13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>229</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="2">
+      <c r="J14" s="2">
         <v>26</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="N14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O14" s="10" t="s">
+      <c r="P14" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q14" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="P14" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>31</v>
+      <c r="R14" s="3">
+        <v>12345678</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>179</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="2">
+      <c r="J15" s="2">
         <v>23</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="6" t="s">
+      <c r="N15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q15" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P15" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>31</v>
+      <c r="R15" s="3">
+        <v>12345678</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>181</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="2">
+      <c r="J16" s="2">
         <v>24</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="6" t="s">
+      <c r="N16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O16" s="10" t="s">
+      <c r="P16" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P16" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>31</v>
+      <c r="R16" s="3">
+        <v>12345678</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="2">
+      <c r="J17" s="2">
         <v>25</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="6" t="s">
+      <c r="N17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O17" s="10" t="s">
+      <c r="P17" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q17" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P17" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>31</v>
+      <c r="R17" s="3">
+        <v>12345678</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H18" s="2">
+      <c r="J18" s="2">
         <v>23</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="6" t="s">
+      <c r="N18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O18" s="10" t="s">
+      <c r="P18" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q18" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="P18" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>31</v>
+      <c r="R18" s="3">
+        <v>12345678</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H19" s="2">
+      <c r="J19" s="2">
         <v>23</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="6" t="s">
+      <c r="N19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O19" s="10" t="s">
+      <c r="P19" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q19" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="P19" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>31</v>
+      <c r="R19" s="3">
+        <v>12345678</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="2">
+      <c r="J20" s="2">
         <v>23</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="6" t="s">
+      <c r="N20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N20" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O20" s="10" t="s">
+      <c r="P20" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q20" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="P20" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>31</v>
+      <c r="R20" s="3">
+        <v>12345678</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y20" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="2">
+      <c r="J21" s="2">
         <v>23</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="6" t="s">
+      <c r="N21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O21" s="10" t="s">
+      <c r="P21" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q21" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="P21" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>31</v>
+      <c r="R21" s="3">
+        <v>12345678</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="2">
+      <c r="J22" s="2">
         <v>23</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="6" t="s">
+      <c r="N22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="N22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="P22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="P22" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>31</v>
+      <c r="R22" s="3">
+        <v>12345678</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V22" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="2">
+      <c r="J23" s="2">
         <v>23</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="6" t="s">
+      <c r="N23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O23" s="10" t="s">
+      <c r="P23" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q23" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="P23" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>31</v>
+      <c r="R23" s="3">
+        <v>12345678</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y23" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="2">
+      <c r="J24" s="2">
         <v>23</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="6" t="s">
+      <c r="N24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N24" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O24" s="10" t="s">
+      <c r="P24" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q24" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="P24" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>31</v>
+      <c r="R24" s="3">
+        <v>12345678</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="2">
+      <c r="J25" s="2">
         <v>23</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="6" t="s">
+      <c r="N25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N25" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O25" s="10" t="s">
+      <c r="P25" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q25" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="P25" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>31</v>
+      <c r="R25" s="3">
+        <v>12345678</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="2">
+      <c r="J26" s="2">
         <v>23</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="6" t="s">
+      <c r="N26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O26" s="10" t="s">
+      <c r="P26" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q26" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="P26" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>31</v>
+      <c r="R26" s="3">
+        <v>12345678</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y26" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="2">
+      <c r="J27" s="2">
         <v>23</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="M27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="6" t="s">
+      <c r="N27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O27" s="10" t="s">
+      <c r="P27" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q27" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="P27" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>31</v>
+      <c r="R27" s="3">
+        <v>12345678</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V27" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y27" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="2">
+      <c r="J28" s="2">
         <v>23</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="6" t="s">
+      <c r="N28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O28" s="10" t="s">
+      <c r="P28" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q28" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="P28" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>31</v>
+      <c r="R28" s="3">
+        <v>12345678</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="2">
+      <c r="J29" s="2">
         <v>23</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="M29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="6" t="s">
+      <c r="N29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N29" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O29" s="10" t="s">
+      <c r="P29" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="P29" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>31</v>
+      <c r="R29" s="3">
+        <v>12345678</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V29" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y29" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="2">
+      <c r="J30" s="2">
         <v>23</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="6" t="s">
+      <c r="N30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O30" s="10" t="s">
+      <c r="P30" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q30" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="P30" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>31</v>
+      <c r="R30" s="3">
+        <v>12345678</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V30" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y30" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="2">
+      <c r="J31" s="2">
         <v>23</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="M31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="6" t="s">
+      <c r="N31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N31" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O31" s="10" t="s">
+      <c r="P31" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q31" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="P31" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>31</v>
+      <c r="R31" s="3">
+        <v>12345678</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V31" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y31" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="2">
+      <c r="J32" s="2">
         <v>23</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="M32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="6" t="s">
+      <c r="N32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="N32" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O32" s="10" t="s">
+      <c r="P32" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q32" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="P32" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>31</v>
+      <c r="R32" s="3">
+        <v>12345678</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V32" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y32" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="2">
+      <c r="J33" s="2">
         <v>23</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="M33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M33" s="6" t="s">
+      <c r="N33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N33" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O33" s="10" t="s">
+      <c r="P33" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q33" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P33" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>31</v>
+      <c r="R33" s="3">
+        <v>12345678</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V33" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H34" s="2">
+      <c r="J34" s="2">
         <v>23</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" s="6" t="s">
+      <c r="N34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N34" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O34" s="10" t="s">
+      <c r="P34" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q34" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="P34" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>31</v>
+      <c r="R34" s="3">
+        <v>12345678</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V34" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H35" s="2">
+      <c r="J35" s="2">
         <v>23</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="M35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M35" s="6" t="s">
+      <c r="N35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N35" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O35" s="10" t="s">
+      <c r="P35" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q35" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="P35" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>31</v>
+      <c r="R35" s="3">
+        <v>12345678</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V35" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H36" s="2">
+      <c r="J36" s="2">
         <v>23</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M36" s="6" t="s">
+      <c r="N36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N36" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O36" s="10" t="s">
+      <c r="P36" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q36" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="P36" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>31</v>
+      <c r="R36" s="3">
+        <v>12345678</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V36" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="2">
+      <c r="J37" s="2">
         <v>23</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="M37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M37" s="6" t="s">
+      <c r="N37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="N37" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O37" s="10" t="s">
+      <c r="P37" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q37" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="P37" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>31</v>
+      <c r="R37" s="3">
+        <v>12345678</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V37" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y37" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>23</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="M38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M38" s="6" t="s">
+      <c r="N38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O38" s="10" t="s">
+      <c r="P38" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q38" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P38" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>31</v>
+      <c r="R38" s="3">
+        <v>12345678</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V38" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y38" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="2">
+      <c r="J39" s="2">
         <v>23</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="M39" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="6" t="s">
+      <c r="N39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N39" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O39" s="10" t="s">
+      <c r="P39" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q39" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="P39" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>31</v>
+      <c r="R39" s="3">
+        <v>12345678</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V39" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="2">
+      <c r="J40" s="2">
         <v>23</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="M40" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M40" s="6" t="s">
+      <c r="N40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N40" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O40" s="10" t="s">
+      <c r="P40" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q40" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="P40" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>31</v>
+      <c r="R40" s="3">
+        <v>12345678</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V40" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H41" s="2">
+      <c r="J41" s="2">
         <v>23</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="M41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L41" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M41" s="6" t="s">
+      <c r="N41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N41" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O41" s="10" t="s">
+      <c r="P41" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q41" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="P41" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>31</v>
+      <c r="R41" s="3">
+        <v>12345678</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V41" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H42" s="2">
+      <c r="J42" s="2">
         <v>23</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="M42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M42" s="6" t="s">
+      <c r="N42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="N42" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O42" s="10" t="s">
+      <c r="P42" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q42" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="P42" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>31</v>
+      <c r="R42" s="3">
+        <v>12345678</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V42" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H43" s="2">
+      <c r="J43" s="2">
         <v>23</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="M43" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M43" s="6" t="s">
+      <c r="N43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O43" s="10" t="s">
+      <c r="P43" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q43" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P43" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>31</v>
+      <c r="R43" s="3">
+        <v>12345678</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V43" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H44" s="2">
+      <c r="J44" s="2">
         <v>23</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="M44" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M44" s="6" t="s">
+      <c r="N44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N44" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O44" s="10" t="s">
+      <c r="P44" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q44" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="P44" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>31</v>
+      <c r="R44" s="3">
+        <v>12345678</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H45" s="2">
+      <c r="J45" s="2">
         <v>23</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="M45" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M45" s="6" t="s">
+      <c r="N45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N45" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O45" s="10" t="s">
+      <c r="P45" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q45" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="P45" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>31</v>
+      <c r="R45" s="3">
+        <v>12345678</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V45" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H46" s="2">
+      <c r="J46" s="2">
         <v>23</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="M46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M46" s="6" t="s">
+      <c r="N46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O46" s="10" t="s">
+      <c r="P46" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q46" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="P46" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>31</v>
+      <c r="R46" s="3">
+        <v>12345678</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V46" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H47" s="2">
+      <c r="J47" s="2">
         <v>23</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="M47" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M47" s="6" t="s">
+      <c r="N47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="N47" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O47" s="10" t="s">
+      <c r="P47" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q47" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="P47" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>31</v>
+      <c r="R47" s="3">
+        <v>12345678</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V47" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y47" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H48" s="2">
+      <c r="J48" s="2">
         <v>23</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="M48" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M48" s="6" t="s">
+      <c r="N48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N48" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O48" s="10" t="s">
+      <c r="P48" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q48" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P48" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>31</v>
+      <c r="R48" s="3">
+        <v>12345678</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V48" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y48" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X48" s="3"/>
-    </row>
-    <row r="49" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H49" s="2">
+      <c r="J49" s="2">
         <v>23</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="M49" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M49" s="6" t="s">
+      <c r="N49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O49" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N49" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O49" s="10" t="s">
+      <c r="P49" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q49" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P49" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>31</v>
+      <c r="R49" s="3">
+        <v>12345678</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V49" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y49" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H50" s="2">
+      <c r="J50" s="2">
         <v>23</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="M50" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M50" s="6" t="s">
+      <c r="N50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N50" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O50" s="10" t="s">
+      <c r="P50" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q50" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P50" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>31</v>
+      <c r="R50" s="3">
+        <v>12345678</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V50" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y50" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="2">
+      <c r="J51" s="2">
         <v>23</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="M51" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M51" s="6" t="s">
+      <c r="N51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O51" s="10" t="s">
+      <c r="P51" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q51" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P51" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R51" s="3" t="s">
-        <v>31</v>
+      <c r="R51" s="3">
+        <v>12345678</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V51" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y51" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X51" s="3"/>
-    </row>
-    <row r="52" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H52" s="2">
+      <c r="J52" s="2">
         <v>23</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="M52" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L52" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M52" s="6" t="s">
+      <c r="N52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O52" s="10" t="s">
+      <c r="P52" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q52" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P52" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>31</v>
+      <c r="R52" s="3">
+        <v>12345678</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V52" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y52" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X52" s="3"/>
-    </row>
-    <row r="53" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H53" s="2">
+      <c r="J53" s="2">
         <v>23</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="M53" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L53" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M53" s="6" t="s">
+      <c r="N53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N53" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O53" s="10" t="s">
+      <c r="P53" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q53" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P53" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R53" s="3" t="s">
-        <v>31</v>
+      <c r="R53" s="3">
+        <v>12345678</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V53" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H54" s="2">
+      <c r="J54" s="2">
         <v>600000</v>
       </c>
-      <c r="I54" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="M54" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L54" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M54" s="6" t="s">
+      <c r="N54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O54" s="10" t="s">
+      <c r="P54" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q54" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P54" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>31</v>
+      <c r="R54" s="3">
+        <v>12345678</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V54" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y54" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X54" s="3"/>
-    </row>
-    <row r="55" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H55" s="2">
+      <c r="J55" s="2">
         <v>700000</v>
       </c>
-      <c r="I55" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="M55" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M55" s="6" t="s">
+      <c r="N55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O55" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N55" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O55" s="10" t="s">
+      <c r="P55" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q55" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P55" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R55" s="3" t="s">
-        <v>31</v>
+      <c r="R55" s="3">
+        <v>12345678</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V55" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y55" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H56" s="2">
+      <c r="J56" s="2">
         <v>800000</v>
       </c>
-      <c r="I56" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="M56" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L56" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M56" s="6" t="s">
+      <c r="N56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O56" s="10" t="s">
+      <c r="P56" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q56" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P56" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R56" s="3" t="s">
-        <v>31</v>
+      <c r="R56" s="3">
+        <v>12345678</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V56" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y56" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H57" s="2">
+      <c r="J57" s="2">
         <v>98500</v>
       </c>
-      <c r="I57" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="M57" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L57" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M57" s="6" t="s">
+      <c r="N57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O57" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N57" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O57" s="10" t="s">
+      <c r="P57" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q57" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P57" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>31</v>
+      <c r="R57" s="3">
+        <v>12345678</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V57" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y57" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X57" s="3"/>
-    </row>
-    <row r="58" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H58" s="2">
+      <c r="J58" s="2">
         <v>2</v>
       </c>
-      <c r="I58" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="M58" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L58" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M58" s="6" t="s">
+      <c r="N58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O58" s="10" t="s">
+      <c r="P58" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q58" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P58" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>31</v>
+      <c r="R58" s="3">
+        <v>12345678</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V58" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y58" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X58" s="3"/>
-    </row>
-    <row r="59" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H59" s="2">
+      <c r="J59" s="2">
         <v>3</v>
       </c>
-      <c r="I59" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="M59" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L59" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M59" s="6" t="s">
+      <c r="N59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N59" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O59" s="10" t="s">
+      <c r="P59" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q59" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P59" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>31</v>
+      <c r="R59" s="3">
+        <v>12345678</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V59" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="W59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y59" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X59" s="3"/>
+      <c r="Z59" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L3" r:id="rId2" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L4" r:id="rId3" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L5" r:id="rId4" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L6" r:id="rId5" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L7" r:id="rId6" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L8" r:id="rId7" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L9" r:id="rId8" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L10" r:id="rId9" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L11" r:id="rId10" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L12" r:id="rId11" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L13" r:id="rId12" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L14" r:id="rId13" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L15" r:id="rId14" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L16" r:id="rId15" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L17" r:id="rId16" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L33" r:id="rId17" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L34" r:id="rId18" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L35" r:id="rId19" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L36" r:id="rId20" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L37" r:id="rId21" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L18" r:id="rId22" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L19" r:id="rId23" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L20" r:id="rId24" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L21" r:id="rId25" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L22" r:id="rId26" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L38" r:id="rId27" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L39" r:id="rId28" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L40" r:id="rId29" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L41" r:id="rId30" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L42" r:id="rId31" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L23" r:id="rId32" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L24" r:id="rId33" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L25" r:id="rId34" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L26" r:id="rId35" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L27" r:id="rId36" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L43" r:id="rId37" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L44" r:id="rId38" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L45" r:id="rId39" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L46" r:id="rId40" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L47" r:id="rId41" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L28" r:id="rId42" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L29" r:id="rId43" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L30" r:id="rId44" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L31" r:id="rId45" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L32" r:id="rId46" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L48" r:id="rId47" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L49" r:id="rId48" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L50" r:id="rId49" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L51" r:id="rId50" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L52" r:id="rId51" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L53" r:id="rId52" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L54" r:id="rId53" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L55" r:id="rId54" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L56" r:id="rId55" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L58" r:id="rId56" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L59" r:id="rId57" display="mailto:aliabb111@gmail.com"/>
-    <hyperlink ref="L57" r:id="rId58" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N2" r:id="rId1" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N3" r:id="rId2" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N4" r:id="rId3" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N5" r:id="rId4" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N6" r:id="rId5" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N7" r:id="rId6" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N8" r:id="rId7" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N9" r:id="rId8" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N10" r:id="rId9" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N11" r:id="rId10" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N12" r:id="rId11" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N13" r:id="rId12" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N14" r:id="rId13" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N15" r:id="rId14" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N16" r:id="rId15" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N17" r:id="rId16" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N33" r:id="rId17" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N34" r:id="rId18" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N35" r:id="rId19" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N36" r:id="rId20" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N37" r:id="rId21" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N18" r:id="rId22" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N19" r:id="rId23" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N20" r:id="rId24" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N21" r:id="rId25" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N22" r:id="rId26" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N38" r:id="rId27" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N39" r:id="rId28" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N40" r:id="rId29" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N41" r:id="rId30" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N42" r:id="rId31" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N23" r:id="rId32" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N24" r:id="rId33" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N25" r:id="rId34" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N26" r:id="rId35" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N27" r:id="rId36" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N43" r:id="rId37" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N44" r:id="rId38" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N45" r:id="rId39" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N46" r:id="rId40" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N47" r:id="rId41" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N28" r:id="rId42" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N29" r:id="rId43" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N30" r:id="rId44" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N31" r:id="rId45" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N32" r:id="rId46" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N48" r:id="rId47" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N49" r:id="rId48" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N50" r:id="rId49" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N51" r:id="rId50" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N52" r:id="rId51" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N53" r:id="rId52" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N54" r:id="rId53" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N55" r:id="rId54" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N56" r:id="rId55" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N58" r:id="rId56" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N59" r:id="rId57" display="mailto:aliabb111@gmail.com"/>
+    <hyperlink ref="N57" r:id="rId58" display="mailto:aliabb111@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
